--- a/二手车-特征释义表.xlsx
+++ b/二手车-特征释义表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanxiaorui/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87239\Desktop\CUHK-IMBA\研一\IBA6104-Programming for Business and Economics\group2_第一阶段\git\UsedCarPricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950544E9-5C3D-0944-A6B5-D8E2DE292E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A34319-F30F-4528-97AE-EFDAADE5BB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16280" activeTab="1" xr2:uid="{202B91A8-0E39-8646-AFB6-7DC69A512E1B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{202B91A8-0E39-8646-AFB6-7DC69A512E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="原始特征" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排放标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,14 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车牌归属地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>续航里程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电池容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出厂日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钥匙数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,34 +84,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fuel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>standard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gearbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>displace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num_trans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该车的生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车的钥匙数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该车的车身颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,99 +140,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>该车的变速箱类型，分为自动和手动，仅限燃油车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车里程表所显示行驶的总里程，单位为万公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车在网站上的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车在网站上的标价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车首次上车牌的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车所属的中国汽车排放标准，主要有新能源、国五、国六、国六b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征释义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表显里程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_regi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_residual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保值率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>official_endurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方续航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌地</t>
+  </si>
+  <si>
+    <t>车牌所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：其他城市，1：一线城市（北上广深）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor_power</t>
+  </si>
+  <si>
+    <t>battery_capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车的电池类型，仅限电动车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车配备的钥匙数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>该车单次充电所能行驶的预估距离，仅限电动车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该车的变速箱类型，分为自动和手动，仅限燃油车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车是否为燃油车，是为1，不是为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车是否为电动车，是为1，不是为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车里程表所显示行驶的总里程，单位为万公里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车在网站上的标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车在网站上的标价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车首次上车牌的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车所属的中国汽车排放标准，主要有新能源、国五、国六、国六b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车的车牌归属地，格式为「城市(省份简称)」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征释义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到手价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表显里程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车的气缸的总容积，单位分为L (涡轮增压)和T (自然吸气)，仅限燃油车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该车所属的城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_regi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_manu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate_residual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保值率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_day</t>
+    <t>区分油车、电车和混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：黑色、白色、深灰色、银灰色，1：其他颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该车的气缸的总容积，单位分为L (涡轮增压)和T (自然吸气)，T*1.4变成L，排放越大性能越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：油车，1：电车，2：混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动0，自动1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">object </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>float64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从title分离得到，该车品牌（清洗后数据才有的特征）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +373,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -376,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +456,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,341 +793,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5223F01-D5E7-ED46-978D-82934FE29FE8}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D21"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.41015625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5" customWidth="1"/>
+    <col min="4" max="4" width="62.9375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.234375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="12"/>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="8">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="8">
-        <v>17</v>
-      </c>
       <c r="B20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="8">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="C25" s="6"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1072,64 +1215,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01998A9-5AA4-2941-8FE4-FDE5BA464C7E}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+    <sheetView zoomScale="162" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8203125" customWidth="1"/>
+    <col min="3" max="3" width="14.17578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="12"/>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1137,7 +1280,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1147,7 +1290,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1157,7 +1300,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1167,7 +1310,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1177,7 +1320,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1187,7 +1330,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1197,7 +1340,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1207,7 +1350,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1217,7 +1360,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1227,7 +1370,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1237,7 +1380,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1249,7 +1392,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
@@ -1258,7 +1401,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="6"/>
@@ -1267,7 +1410,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="6"/>
@@ -1276,7 +1419,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="6"/>
@@ -1285,7 +1428,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="6"/>
@@ -1294,7 +1437,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="6"/>
@@ -1303,7 +1446,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="6"/>
@@ -1312,7 +1455,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
@@ -1321,7 +1464,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="6"/>
@@ -1330,7 +1473,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="6"/>
@@ -1339,7 +1482,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="6"/>
@@ -1348,7 +1491,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="6"/>
@@ -1357,7 +1500,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="7"/>
@@ -1366,7 +1509,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="6"/>
@@ -1375,7 +1518,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="6"/>
@@ -1384,7 +1527,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="6"/>
@@ -1393,7 +1536,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="7"/>
@@ -1402,7 +1545,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="6"/>

--- a/二手车-特征释义表.xlsx
+++ b/二手车-特征释义表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87239\Desktop\CUHK-IMBA\研一\IBA6104-Programming for Business and Economics\group2_第一阶段\git\UsedCarPricing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/progrmming_project/UsedCarPricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A34319-F30F-4528-97AE-EFDAADE5BB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36ED64B-116C-A94E-900F-FBA6F4793E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{202B91A8-0E39-8646-AFB6-7DC69A512E1B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" activeTab="1" xr2:uid="{202B91A8-0E39-8646-AFB6-7DC69A512E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="原始特征" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,55 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newness_rate</t>
+  </si>
+  <si>
+    <t>使用年限成新率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mile_per_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每日里程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15年-已使用年限/15年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程/天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格/新车价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-首次上牌时间</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,6 +438,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -418,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,10 +518,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,23 +535,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,50 +866,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5223F01-D5E7-ED46-978D-82934FE29FE8}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.41015625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.9375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.234375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="63" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -848,14 +919,14 @@
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -865,14 +936,14 @@
       <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -882,14 +953,14 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -899,14 +970,14 @@
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -916,14 +987,14 @@
       <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -933,14 +1004,14 @@
       <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -950,11 +1021,11 @@
       <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="34">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -964,17 +1035,17 @@
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -984,14 +1055,14 @@
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="68">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1001,17 +1072,17 @@
       <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="85">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1021,17 +1092,17 @@
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1041,14 +1112,14 @@
       <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1058,14 +1129,14 @@
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1075,14 +1146,14 @@
       <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="51">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1092,17 +1163,17 @@
       <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="32">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1112,14 +1183,14 @@
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="17">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1129,14 +1200,14 @@
       <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="17">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1146,42 +1217,42 @@
       <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19">
       <c r="A21" s="8"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="C25" s="6"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1215,40 +1286,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01998A9-5AA4-2941-8FE4-FDE5BA464C7E}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="12.8203125" customWidth="1"/>
-    <col min="3" max="3" width="14.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="14"/>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1258,9 +1329,11 @@
       <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D3" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1270,27 +1343,41 @@
       <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="D4" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1300,7 +1387,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1310,7 +1397,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1320,7 +1407,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1330,7 +1417,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1340,7 +1427,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1350,7 +1437,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1360,7 +1447,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1370,7 +1457,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1380,7 +1467,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1392,7 +1479,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
@@ -1401,7 +1488,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="6"/>
@@ -1410,7 +1497,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="6"/>
@@ -1419,7 +1506,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="6"/>
@@ -1428,7 +1515,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="6"/>
@@ -1437,7 +1524,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="6"/>
@@ -1446,7 +1533,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="6"/>
@@ -1455,7 +1542,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="6"/>
@@ -1464,7 +1551,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="6"/>
@@ -1473,7 +1560,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="6"/>
@@ -1482,7 +1569,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="6"/>
@@ -1491,7 +1578,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="6"/>
@@ -1500,7 +1587,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="7"/>
@@ -1509,7 +1596,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="6"/>
@@ -1518,7 +1605,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="6"/>
@@ -1527,7 +1614,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="6"/>
@@ -1536,7 +1623,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="7"/>
@@ -1545,7 +1632,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="6"/>
